--- a/taches.xlsx
+++ b/taches.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Web_finalS4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ci\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>Catégorie</t>
   </si>
@@ -176,7 +176,97 @@
     <t>Fonction check date rdv valide</t>
   </si>
   <si>
-    <t>Fonction update date</t>
+    <t>Integration liste service</t>
+  </si>
+  <si>
+    <t>Integration date paymant</t>
+  </si>
+  <si>
+    <t>Suppression donnees</t>
+  </si>
+  <si>
+    <t>Bouton suppression</t>
+  </si>
+  <si>
+    <t>Fonction supprimer donnees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration suppression </t>
+  </si>
+  <si>
+    <t>Imporation donnees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page d'imporation </t>
+  </si>
+  <si>
+    <t>Fonction insert cvs to base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration imporation </t>
+  </si>
+  <si>
+    <t>Utilisation slot</t>
+  </si>
+  <si>
+    <t>Page choix date</t>
+  </si>
+  <si>
+    <t>Fonction utilisation slot date</t>
+  </si>
+  <si>
+    <t>Integration utilisation slot</t>
+  </si>
+  <si>
+    <t>Tableau de bord</t>
+  </si>
+  <si>
+    <t>Page Chiffre d'affaire date</t>
+  </si>
+  <si>
+    <t>Fonction CD/date</t>
+  </si>
+  <si>
+    <t>Integration CD/date</t>
+  </si>
+  <si>
+    <t>Page CD/type_voiiture</t>
+  </si>
+  <si>
+    <t>Page detail type_voiture</t>
+  </si>
+  <si>
+    <t>Fonction CD/type_voiture</t>
+  </si>
+  <si>
+    <t>Fonction detail type_voiture</t>
+  </si>
+  <si>
+    <t>Integration CD/type_voiture</t>
+  </si>
+  <si>
+    <t>Integration detail type_voiture</t>
+  </si>
+  <si>
+    <t>Page utilisation slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonction utilisation slot </t>
+  </si>
+  <si>
+    <t>Affichge</t>
+  </si>
+  <si>
+    <t>Page voiture T/j</t>
+  </si>
+  <si>
+    <t>Fonction Voiture date</t>
+  </si>
+  <si>
+    <t>Integration voiture date</t>
+  </si>
+  <si>
+    <t>Metire</t>
   </si>
 </sst>
 </file>
@@ -527,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +681,7 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,7 +821,15 @@
       <c r="E10">
         <v>20</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -746,7 +844,15 @@
       <c r="E11">
         <v>20</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -761,6 +867,18 @@
       <c r="D13" t="s">
         <v>33</v>
       </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -775,6 +893,15 @@
       <c r="E14">
         <v>45</v>
       </c>
+      <c r="F14">
+        <v>90</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -813,6 +940,15 @@
       <c r="E21">
         <v>20</v>
       </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -865,6 +1001,18 @@
       <c r="D25" t="s">
         <v>33</v>
       </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -879,6 +1027,15 @@
       <c r="E26">
         <v>60</v>
       </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -898,94 +1055,436 @@
       <c r="B29" t="s">
         <v>47</v>
       </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>48</v>
       </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>49</v>
       </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35">
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>43</v>
       </c>
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37">
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>45</v>
       </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" t="s">
         <v>37</v>
       </c>
     </row>

--- a/taches.xlsx
+++ b/taches.xlsx
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,6 +1061,18 @@
       <c r="D29" t="s">
         <v>33</v>
       </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1143,6 +1155,18 @@
       <c r="D35" t="s">
         <v>33</v>
       </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -1211,6 +1235,18 @@
       <c r="D39" t="s">
         <v>33</v>
       </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -1247,6 +1283,9 @@
       <c r="D43" t="s">
         <v>32</v>
       </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -1283,6 +1322,9 @@
       <c r="D47" t="s">
         <v>32</v>
       </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -1295,7 +1337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -1309,7 +1351,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>75</v>
       </c>
@@ -1319,8 +1361,11 @@
       <c r="D51" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>63</v>
       </c>
@@ -1331,7 +1376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>61</v>
       </c>
@@ -1342,7 +1387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>62</v>
       </c>
@@ -1352,8 +1397,11 @@
       <c r="D54" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -1367,7 +1415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>66</v>
       </c>
@@ -1377,8 +1425,11 @@
       <c r="D57" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>67</v>
       </c>
@@ -1389,7 +1440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>68</v>
       </c>
@@ -1400,7 +1451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>69</v>
       </c>
@@ -1411,7 +1462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>70</v>
       </c>
@@ -1422,7 +1473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>71</v>
       </c>
@@ -1433,7 +1484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>72</v>
       </c>
